--- a/raw_data/20200818_saline/20200818_Sensor2_Test_73.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_73.xlsx
@@ -1,643 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B9691E-92C7-4A1A-BC36-0F19C9A423A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>65171.205347</v>
+        <v>65171.205347000003</v>
       </c>
       <c r="B2" s="1">
         <v>18.103113</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-310.791000</v>
+        <v>-310.791</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>65181.596533</v>
+        <v>65181.596533000004</v>
       </c>
       <c r="G2" s="1">
-        <v>18.105999</v>
+        <v>18.105999000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="I2" s="1">
-        <v>-268.793000</v>
+        <v>-268.79300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>65192.397413</v>
+        <v>65192.397412999999</v>
       </c>
       <c r="L2" s="1">
-        <v>18.108999</v>
+        <v>18.108999000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.390000</v>
+        <v>1305.3900000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-205.973000</v>
+        <v>-205.97300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>65202.908638</v>
+        <v>65202.908638000001</v>
       </c>
       <c r="Q2" s="1">
         <v>18.111919</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.900000</v>
+        <v>1317.9</v>
       </c>
       <c r="S2" s="1">
-        <v>-187.428000</v>
+        <v>-187.428</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>65213.809210</v>
+        <v>65213.809209999999</v>
       </c>
       <c r="V2" s="1">
-        <v>18.114947</v>
+        <v>18.114947000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="X2" s="1">
-        <v>-173.468000</v>
+        <v>-173.46799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>65224.017869</v>
+        <v>65224.017869000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.117783</v>
+        <v>18.117782999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.310000</v>
+        <v>1349.31</v>
       </c>
       <c r="AC2" s="1">
-        <v>-171.082000</v>
+        <v>-171.08199999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>65234.305918</v>
+        <v>65234.305917999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.120641</v>
+        <v>18.120640999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.432000</v>
+        <v>-180.43199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>65244.399474</v>
+        <v>65244.399473999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.123444</v>
+        <v>18.123443999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.020000</v>
+        <v>1384.02</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.082000</v>
+        <v>-210.08199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>65254.664713</v>
+        <v>65254.664712999998</v>
       </c>
       <c r="AP2" s="1">
         <v>18.126296</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.350000</v>
+        <v>1406.35</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.494000</v>
+        <v>-253.494</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>65265.339605</v>
+        <v>65265.339605000001</v>
       </c>
       <c r="AU2" s="1">
         <v>18.129261</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.720000</v>
+        <v>1431.72</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.799000</v>
+        <v>-312.79899999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>65276.435575</v>
+        <v>65276.435575000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.132343</v>
+        <v>18.132342999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.267000</v>
+        <v>-364.267</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>65287.390216</v>
@@ -646,105 +1062,105 @@
         <v>18.135386</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.980000</v>
+        <v>1538.98</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.820000</v>
+        <v>-608.82000000000005</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>65298.419792</v>
+        <v>65298.419792000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.138450</v>
+        <v>18.138449999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.990000</v>
+        <v>1695.99</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1045.480000</v>
+        <v>-1045.48</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>65309.790043</v>
+        <v>65309.790043000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.141608</v>
+        <v>18.141608000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.910000</v>
+        <v>1993.91</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1798.310000</v>
+        <v>-1798.31</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>65320.139101</v>
+        <v>65320.139101000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.144483</v>
+        <v>18.144483000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2382.240000</v>
+        <v>2382.2399999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2661.110000</v>
+        <v>-2661.11</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>65330.923125</v>
+        <v>65330.923125000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.147479</v>
+        <v>18.147479000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2869.350000</v>
+        <v>2869.35</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3601.250000</v>
+        <v>-3601.25</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>65342.187232</v>
+        <v>65342.187231999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.150608</v>
+        <v>18.150607999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>4283.110000</v>
+        <v>4283.1099999999997</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5851.090000</v>
+        <v>-5851.09</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>65171.586770</v>
+        <v>65171.586770000002</v>
       </c>
       <c r="B3" s="1">
-        <v>18.103219</v>
+        <v>18.103218999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-310.650000</v>
+        <v>-310.64999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>65181.966579</v>
@@ -753,13 +1169,13 @@
         <v>18.106102</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.950000</v>
+        <v>1268.95</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.859000</v>
+        <v>-268.85899999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>65193.092804</v>
@@ -768,1842 +1184,1842 @@
         <v>18.109192</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.930000</v>
+        <v>1305.93</v>
       </c>
       <c r="N3" s="1">
-        <v>-206.001000</v>
+        <v>-206.001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>65203.622872</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.112117</v>
+        <v>18.112117000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.010000</v>
+        <v>1318.01</v>
       </c>
       <c r="S3" s="1">
-        <v>-187.525000</v>
+        <v>-187.52500000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>65214.205055</v>
+        <v>65214.205054999999</v>
       </c>
       <c r="V3" s="1">
         <v>18.115057</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.360000</v>
+        <v>1331.36</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.509000</v>
+        <v>-173.50899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>65224.376973</v>
+        <v>65224.376972999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.117882</v>
+        <v>18.117882000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.370000</v>
+        <v>1349.37</v>
       </c>
       <c r="AC3" s="1">
-        <v>-171.085000</v>
+        <v>-171.08500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>65234.656557</v>
+        <v>65234.656557000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.120738</v>
+        <v>18.120737999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.710000</v>
+        <v>1362.71</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.496000</v>
+        <v>-180.49600000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>65244.790353</v>
+        <v>65244.790352999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.123553</v>
+        <v>18.123553000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.010000</v>
+        <v>1384.01</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.134000</v>
+        <v>-210.13399999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>65255.056051</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.126404</v>
+        <v>18.126404000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.350000</v>
+        <v>1406.35</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.539000</v>
+        <v>-253.53899999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>65265.763158</v>
+        <v>65265.763158000002</v>
       </c>
       <c r="AU3" s="1">
         <v>18.129379</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.791000</v>
+        <v>-312.791</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>65276.843783</v>
+        <v>65276.843782999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.132457</v>
+        <v>18.132456999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.201000</v>
+        <v>-364.20100000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>65287.826695</v>
+        <v>65287.826695000003</v>
       </c>
       <c r="BE3" s="1">
         <v>18.135507</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.813000</v>
+        <v>-608.81299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>65298.799192</v>
+        <v>65298.799191999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>18.138555</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1045.480000</v>
+        <v>-1045.48</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>65310.231519</v>
+        <v>65310.231519000001</v>
       </c>
       <c r="BO3" s="1">
         <v>18.141731</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.810000</v>
+        <v>1993.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1798.640000</v>
+        <v>-1798.64</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>65320.643997</v>
+        <v>65320.643996999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.144623</v>
+        <v>18.144622999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2381.890000</v>
+        <v>2381.89</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2661.760000</v>
+        <v>-2661.76</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>65331.410157</v>
+        <v>65331.410156999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.147614</v>
+        <v>18.147614000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2868.570000</v>
+        <v>2868.57</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3601.000000</v>
+        <v>-3601</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>65342.723439</v>
+        <v>65342.723439000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.150757</v>
+        <v>18.150756999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4288.890000</v>
+        <v>4288.8900000000003</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5836.010000</v>
+        <v>-5836.01</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>65172.239821</v>
+        <v>65172.239821000003</v>
       </c>
       <c r="B4" s="1">
-        <v>18.103400</v>
+        <v>18.103400000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1242.380000</v>
+        <v>1242.3800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-311.063000</v>
+        <v>-311.06299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>65182.623747</v>
+        <v>65182.623746999998</v>
       </c>
       <c r="G4" s="1">
-        <v>18.106284</v>
+        <v>18.106283999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.090000</v>
+        <v>1268.0899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-269.092000</v>
+        <v>-269.09199999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>65193.475220</v>
+        <v>65193.47522</v>
       </c>
       <c r="L4" s="1">
         <v>18.109299</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N4" s="1">
-        <v>-206.040000</v>
+        <v>-206.04</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>65203.997350</v>
+        <v>65203.997349999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.112221</v>
+        <v>18.112221000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.950000</v>
+        <v>1317.95</v>
       </c>
       <c r="S4" s="1">
-        <v>-187.562000</v>
+        <v>-187.56200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>65214.544776</v>
+        <v>65214.544776000002</v>
       </c>
       <c r="V4" s="1">
-        <v>18.115151</v>
+        <v>18.115151000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.440000</v>
+        <v>1331.44</v>
       </c>
       <c r="X4" s="1">
-        <v>-173.652000</v>
+        <v>-173.65199999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>65224.726187</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.117979</v>
+        <v>18.117978999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.460000</v>
+        <v>1349.46</v>
       </c>
       <c r="AC4" s="1">
-        <v>-171.018000</v>
+        <v>-171.018</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>65234.999790</v>
+        <v>65234.999790000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.120833</v>
+        <v>18.120833000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.730000</v>
+        <v>1362.73</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.484000</v>
+        <v>-180.48400000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>65245.212415</v>
+        <v>65245.212415000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.123670</v>
+        <v>18.123670000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.020000</v>
+        <v>1384.02</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.127000</v>
+        <v>-210.12700000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>65255.490018</v>
+        <v>65255.490017999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.126525</v>
+        <v>18.126525000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.350000</v>
+        <v>1406.35</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.503000</v>
+        <v>-253.50299999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>65266.090021</v>
+        <v>65266.090021000004</v>
       </c>
       <c r="AU4" s="1">
         <v>18.129469</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.720000</v>
+        <v>1431.72</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.807000</v>
+        <v>-312.80700000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>65277.200903</v>
+        <v>65277.200902999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.132556</v>
+        <v>18.132556000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>65288.188279</v>
+        <v>65288.188279000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.135608</v>
+        <v>18.135608000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.910000</v>
+        <v>1538.91</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.831000</v>
+        <v>-608.83100000000002</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>65299.174697</v>
+        <v>65299.174697000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.138660</v>
+        <v>18.138660000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.930000</v>
+        <v>1695.93</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1045.520000</v>
+        <v>-1045.52</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>65310.652585</v>
+        <v>65310.652585000003</v>
       </c>
       <c r="BO4" s="1">
         <v>18.141848</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.600000</v>
+        <v>1993.6</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1798.840000</v>
+        <v>-1798.84</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>65321.077995</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.144744</v>
+        <v>18.144743999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2381.460000</v>
+        <v>2381.46</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2661.870000</v>
+        <v>-2661.87</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>65331.858809</v>
+        <v>65331.858808999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.147739</v>
+        <v>18.147739000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2867.710000</v>
+        <v>2867.71</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3601.180000</v>
+        <v>-3601.18</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>65343.250190</v>
+        <v>65343.250189999999</v>
       </c>
       <c r="CD4" s="1">
         <v>18.150903</v>
       </c>
       <c r="CE4" s="1">
-        <v>4291.360000</v>
+        <v>4291.3599999999997</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5842.550000</v>
+        <v>-5842.55</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>65172.612991</v>
+        <v>65172.612991000002</v>
       </c>
       <c r="B5" s="1">
-        <v>18.103504</v>
+        <v>18.103504000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.470000</v>
+        <v>1242.47</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.758000</v>
+        <v>-310.75799999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>65183.001729</v>
+        <v>65183.001729000003</v>
       </c>
       <c r="G5" s="1">
         <v>18.106389</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.880000</v>
+        <v>1268.8800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-268.404000</v>
+        <v>-268.404</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>65193.817988</v>
+        <v>65193.817988000003</v>
       </c>
       <c r="L5" s="1">
-        <v>18.109394</v>
+        <v>18.109394000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.680000</v>
+        <v>1305.68</v>
       </c>
       <c r="N5" s="1">
-        <v>-205.721000</v>
+        <v>-205.721</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>65204.344091</v>
+        <v>65204.344090999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.112318</v>
+        <v>18.112317999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.980000</v>
+        <v>1317.98</v>
       </c>
       <c r="S5" s="1">
-        <v>-187.551000</v>
+        <v>-187.55099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>65214.889495</v>
+        <v>65214.889495000003</v>
       </c>
       <c r="V5" s="1">
         <v>18.115247</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.510000</v>
+        <v>1331.51</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.680000</v>
+        <v>-173.68</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>65225.147258</v>
+        <v>65225.147257999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.118096</v>
+        <v>18.118096000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.460000</v>
+        <v>1349.46</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.871000</v>
+        <v>-170.87100000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>65235.422380</v>
+        <v>65235.422380000004</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.120951</v>
+        <v>18.120951000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.850000</v>
+        <v>1362.85</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.505000</v>
+        <v>-180.505</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>65245.502607</v>
+        <v>65245.502607000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.123751</v>
+        <v>18.123750999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.990000</v>
+        <v>1383.99</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.106000</v>
+        <v>-210.10599999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>65255.777700</v>
+        <v>65255.777699999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.126605</v>
+        <v>18.126605000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.360000</v>
+        <v>1406.36</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.488000</v>
+        <v>-253.488</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>65266.454083</v>
+        <v>65266.454082999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.129571</v>
+        <v>18.129570999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.801000</v>
+        <v>-312.80099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>65277.561494</v>
+        <v>65277.561494000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.132656</v>
+        <v>18.132656000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.194000</v>
+        <v>-364.19400000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>65288.548870</v>
+        <v>65288.548869999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.135708</v>
+        <v>18.135708000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.794000</v>
+        <v>-608.79399999999998</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>65299.922631</v>
+        <v>65299.922631000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.138867</v>
+        <v>18.138867000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1045.550000</v>
+        <v>-1045.55</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>65311.046441</v>
+        <v>65311.046440999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.141957</v>
+        <v>18.141957000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.510000</v>
+        <v>1993.51</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1798.620000</v>
+        <v>-1798.62</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>65321.506075</v>
+        <v>65321.506074999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.144863</v>
+        <v>18.144863000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2381.030000</v>
+        <v>2381.0300000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2662.450000</v>
+        <v>-2662.45</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>65332.281132</v>
+        <v>65332.281131999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.147856</v>
+        <v>18.147856000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2868.280000</v>
+        <v>2868.28</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3601.210000</v>
+        <v>-3601.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>65344.080493</v>
+        <v>65344.080493000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.151133</v>
+        <v>18.151133000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>4281.200000</v>
+        <v>4281.2</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5828.940000</v>
+        <v>-5828.94</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>65172.954241</v>
+        <v>65172.954240999999</v>
       </c>
       <c r="B6" s="1">
-        <v>18.103598</v>
+        <v>18.103598000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-310.812000</v>
+        <v>-310.81200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>65183.346454</v>
+        <v>65183.346453999999</v>
       </c>
       <c r="G6" s="1">
-        <v>18.106485</v>
+        <v>18.106484999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-268.956000</v>
+        <v>-268.95600000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>65194.164659</v>
+        <v>65194.164659000002</v>
       </c>
       <c r="L6" s="1">
-        <v>18.109490</v>
+        <v>18.109490000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.590000</v>
+        <v>1305.5899999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-206.084000</v>
+        <v>-206.084</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>65204.691285</v>
+        <v>65204.691285000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.112414</v>
+        <v>18.112414000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.960000</v>
+        <v>1317.96</v>
       </c>
       <c r="S6" s="1">
-        <v>-187.474000</v>
+        <v>-187.47399999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>65215.305671</v>
+        <v>65215.305671000002</v>
       </c>
       <c r="V6" s="1">
-        <v>18.115363</v>
+        <v>18.115362999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.610000</v>
+        <v>1331.61</v>
       </c>
       <c r="X6" s="1">
-        <v>-173.578000</v>
+        <v>-173.578</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>65225.425513</v>
+        <v>65225.425513000002</v>
       </c>
       <c r="AA6" s="1">
         <v>18.118174</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.410000</v>
+        <v>1349.41</v>
       </c>
       <c r="AC6" s="1">
-        <v>-171.071000</v>
+        <v>-171.071</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>65235.692204</v>
+        <v>65235.692203999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.121026</v>
+        <v>18.121026000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.720000</v>
+        <v>1362.72</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.679000</v>
+        <v>-180.679</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>65245.851758</v>
+        <v>65245.851757999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.123848</v>
+        <v>18.123847999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.950000</v>
+        <v>1383.95</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.115000</v>
+        <v>-210.11500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>65256.139282</v>
+        <v>65256.139281999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.126705</v>
+        <v>18.126705000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.320000</v>
+        <v>1406.32</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.482000</v>
+        <v>-253.482</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>65266.820163</v>
+        <v>65266.820162999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.129672</v>
+        <v>18.129671999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.781000</v>
+        <v>-312.78100000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>65278.278742</v>
+        <v>65278.278742000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.132855</v>
+        <v>18.132854999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.620000</v>
+        <v>1451.62</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.237000</v>
+        <v>-364.23700000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>65289.300807</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.135917</v>
+        <v>18.135916999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.743000</v>
+        <v>-608.74300000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>65300.299592</v>
+        <v>65300.299592000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.138972</v>
+        <v>18.138971999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.880000</v>
+        <v>1695.88</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1045.460000</v>
+        <v>-1045.46</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>65311.467513</v>
+        <v>65311.467513000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.142074</v>
+        <v>18.142074000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.410000</v>
+        <v>1993.41</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1798.700000</v>
+        <v>-1798.7</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>65321.918714</v>
+        <v>65321.918713999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.144977</v>
+        <v>18.144977000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2380.820000</v>
+        <v>2380.8200000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2663.020000</v>
+        <v>-2663.02</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>65333.008875</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.148058</v>
+        <v>18.148057999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2868.360000</v>
+        <v>2868.36</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3601.200000</v>
+        <v>-3601.2</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>65344.319069</v>
+        <v>65344.319068999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.151200</v>
+        <v>18.151199999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4268.600000</v>
+        <v>4268.6000000000004</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5845.450000</v>
+        <v>-5845.45</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>65173.295990</v>
+        <v>65173.295989999999</v>
       </c>
       <c r="B7" s="1">
         <v>18.103693</v>
       </c>
       <c r="C7" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-310.871000</v>
+        <v>-310.87099999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>65183.692626</v>
+        <v>65183.692625999996</v>
       </c>
       <c r="G7" s="1">
-        <v>18.106581</v>
+        <v>18.106580999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.570000</v>
+        <v>1268.57</v>
       </c>
       <c r="I7" s="1">
-        <v>-269.319000</v>
+        <v>-269.31900000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>65194.586260</v>
+        <v>65194.586259999996</v>
       </c>
       <c r="L7" s="1">
         <v>18.109607</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.700000</v>
+        <v>1305.7</v>
       </c>
       <c r="N7" s="1">
-        <v>-206.111000</v>
+        <v>-206.11099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>65205.170125</v>
+        <v>65205.170124999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.112547</v>
+        <v>18.112546999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.940000</v>
+        <v>1317.94</v>
       </c>
       <c r="S7" s="1">
-        <v>-187.402000</v>
+        <v>-187.40199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>65215.583398</v>
+        <v>65215.583398000002</v>
       </c>
       <c r="V7" s="1">
-        <v>18.115440</v>
+        <v>18.11544</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="X7" s="1">
-        <v>-173.607000</v>
+        <v>-173.607</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>65225.772728</v>
+        <v>65225.772728000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.118270</v>
+        <v>18.118269999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.430000</v>
+        <v>1349.43</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.831000</v>
+        <v>-170.83099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>65236.032496</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.121120</v>
+        <v>18.121120000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.780000</v>
+        <v>1362.78</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.746000</v>
+        <v>-180.74600000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>65246.204451</v>
+        <v>65246.204450999998</v>
       </c>
       <c r="AK7" s="1">
         <v>18.123946</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.000000</v>
+        <v>1384</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.089000</v>
+        <v>-210.089</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>65256.857489</v>
+        <v>65256.857489000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.126905</v>
+        <v>18.126905000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.360000</v>
+        <v>1406.36</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.487000</v>
+        <v>-253.48699999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>65267.549747</v>
+        <v>65267.549746999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.129875</v>
+        <v>18.129874999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.810000</v>
+        <v>-312.81</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>65278.633843</v>
+        <v>65278.633843000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.132954</v>
+        <v>18.132954000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.219000</v>
+        <v>-364.21899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>65289.660415</v>
+        <v>65289.660414999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.136017</v>
+        <v>18.136016999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.792000</v>
+        <v>-608.79200000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>65300.674598</v>
+        <v>65300.674597999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.139076</v>
+        <v>18.139075999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.820000</v>
+        <v>1695.82</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1045.540000</v>
+        <v>-1045.54</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>65312.180263</v>
+        <v>65312.180263000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.142272</v>
+        <v>18.142271999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.580000</v>
+        <v>1993.58</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1798.550000</v>
+        <v>-1798.55</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>65322.662217</v>
+        <v>65322.662216999997</v>
       </c>
       <c r="BT7" s="1">
         <v>18.145184</v>
       </c>
       <c r="BU7" s="1">
-        <v>2381.060000</v>
+        <v>2381.06</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2663.380000</v>
+        <v>-2663.38</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>65333.128301</v>
+        <v>65333.128300999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.148091</v>
+        <v>18.148091000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2868.340000</v>
+        <v>2868.34</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3601.990000</v>
+        <v>-3601.99</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>65344.851772</v>
+        <v>65344.851772000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.151348</v>
+        <v>18.151347999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4291.780000</v>
+        <v>4291.78</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5839.310000</v>
+        <v>-5839.31</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>65173.726048</v>
+        <v>65173.726047999997</v>
       </c>
       <c r="B8" s="1">
-        <v>18.103813</v>
+        <v>18.103812999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-310.804000</v>
+        <v>-310.80399999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>65184.121664</v>
+        <v>65184.121663999998</v>
       </c>
       <c r="G8" s="1">
-        <v>18.106700</v>
+        <v>18.1067</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.630000</v>
+        <v>1268.6300000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-268.904000</v>
+        <v>-268.904</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>65194.867986</v>
+        <v>65194.867985999997</v>
       </c>
       <c r="L8" s="1">
         <v>18.109686</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.540000</v>
+        <v>1305.54</v>
       </c>
       <c r="N8" s="1">
-        <v>-205.754000</v>
+        <v>-205.75399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>65205.386148</v>
+        <v>65205.386147999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.112607</v>
+        <v>18.112607000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.970000</v>
+        <v>1317.97</v>
       </c>
       <c r="S8" s="1">
-        <v>-187.469000</v>
+        <v>-187.46899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>65215.924151</v>
+        <v>65215.924150999999</v>
       </c>
       <c r="V8" s="1">
         <v>18.115534</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.550000</v>
+        <v>1331.55</v>
       </c>
       <c r="X8" s="1">
-        <v>-173.658000</v>
+        <v>-173.65799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>65226.124413</v>
+        <v>65226.124412999998</v>
       </c>
       <c r="AA8" s="1">
         <v>18.118368</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.320000</v>
+        <v>1349.32</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.972000</v>
+        <v>-170.97200000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>65236.375700</v>
+        <v>65236.375699999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.121215</v>
+        <v>18.121214999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.460000</v>
+        <v>1362.46</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.360000</v>
+        <v>-180.36</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>65246.896831</v>
+        <v>65246.896830999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.124138</v>
+        <v>18.124137999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.000000</v>
+        <v>1384</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.074000</v>
+        <v>-210.07400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>65257.246385</v>
+        <v>65257.246384999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.127013</v>
+        <v>18.127013000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.340000</v>
+        <v>1406.34</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.500000</v>
+        <v>-253.5</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>65267.934145</v>
+        <v>65267.934144999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.129982</v>
+        <v>18.129981999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.680000</v>
+        <v>1431.68</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.808000</v>
+        <v>-312.80799999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>65278.998403</v>
+        <v>65278.998402999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.133055</v>
+        <v>18.133054999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.222000</v>
+        <v>-364.22199999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>65290.299748</v>
+        <v>65290.299747999998</v>
       </c>
       <c r="BE8" s="1">
         <v>18.136194</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.760000</v>
+        <v>-608.76</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>65301.363509</v>
+        <v>65301.363509000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.139268</v>
+        <v>18.139268000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.870000</v>
+        <v>1695.87</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1045.470000</v>
+        <v>-1045.47</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>65312.288924</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.142302</v>
+        <v>18.142302000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.490000</v>
+        <v>1993.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1798.580000</v>
+        <v>-1798.58</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>65322.773817</v>
+        <v>65322.773817000001</v>
       </c>
       <c r="BT8" s="1">
         <v>18.145215</v>
       </c>
       <c r="BU8" s="1">
-        <v>2380.890000</v>
+        <v>2380.89</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2664.050000</v>
+        <v>-2664.05</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>65333.570764</v>
+        <v>65333.570763999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.148214</v>
+        <v>18.148213999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2867.860000</v>
+        <v>2867.86</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3600.830000</v>
+        <v>-3600.83</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>65345.394860</v>
+        <v>65345.39486</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.151499</v>
+        <v>18.151499000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4271.140000</v>
+        <v>4271.1400000000003</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5835.340000</v>
+        <v>-5835.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>65173.990910</v>
+        <v>65173.99091</v>
       </c>
       <c r="B9" s="1">
-        <v>18.103886</v>
+        <v>18.103885999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.230000</v>
+        <v>1242.23</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.927000</v>
+        <v>-310.92700000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>65184.388017</v>
+        <v>65184.388016999997</v>
       </c>
       <c r="G9" s="1">
-        <v>18.106774</v>
+        <v>18.106774000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.000000</v>
+        <v>1270</v>
       </c>
       <c r="I9" s="1">
-        <v>-269.053000</v>
+        <v>-269.053</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>65195.215186</v>
+        <v>65195.215186000001</v>
       </c>
       <c r="L9" s="1">
-        <v>18.109782</v>
+        <v>18.109781999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-205.880000</v>
+        <v>-205.88</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>65205.739336</v>
+        <v>65205.739335999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.112705</v>
+        <v>18.112704999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.970000</v>
+        <v>1317.97</v>
       </c>
       <c r="S9" s="1">
-        <v>-187.542000</v>
+        <v>-187.542</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>65216.270359</v>
+        <v>65216.270359000002</v>
       </c>
       <c r="V9" s="1">
         <v>18.115631</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="X9" s="1">
-        <v>-173.757000</v>
+        <v>-173.75700000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>65226.820264</v>
+        <v>65226.820264000002</v>
       </c>
       <c r="AA9" s="1">
         <v>18.118561</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.360000</v>
+        <v>1349.36</v>
       </c>
       <c r="AC9" s="1">
-        <v>-171.077000</v>
+        <v>-171.077</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>65237.065630</v>
+        <v>65237.065629999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.121407</v>
+        <v>18.121407000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.430000</v>
+        <v>1362.43</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.445000</v>
+        <v>-180.44499999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>65247.248990</v>
+        <v>65247.24899</v>
       </c>
       <c r="AK9" s="1">
         <v>18.124236</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.010000</v>
+        <v>1384.01</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.111000</v>
+        <v>-210.11099999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>65257.624832</v>
+        <v>65257.624832000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.127118</v>
+        <v>18.127117999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.350000</v>
+        <v>1406.35</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.493000</v>
+        <v>-253.49299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>65268.302177</v>
+        <v>65268.302176999998</v>
       </c>
       <c r="AU9" s="1">
         <v>18.130084</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.700000</v>
+        <v>1431.7</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.784000</v>
+        <v>-312.78399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>65279.665523</v>
+        <v>65279.665523000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.133240</v>
+        <v>18.133240000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.620000</v>
+        <v>1451.62</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.210000</v>
+        <v>-364.21</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>65290.739731</v>
+        <v>65290.739731000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.136317</v>
+        <v>18.136316999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.788000</v>
+        <v>-608.78800000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>65301.800517</v>
+        <v>65301.800517000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.139389</v>
+        <v>18.139389000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.860000</v>
+        <v>1695.86</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1045.460000</v>
+        <v>-1045.46</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>65312.708006</v>
+        <v>65312.708006000001</v>
       </c>
       <c r="BO9" s="1">
         <v>18.142419</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.470000</v>
+        <v>1993.47</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1798.560000</v>
+        <v>-1798.56</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>65323.215755</v>
+        <v>65323.215754999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.145338</v>
+        <v>18.145337999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2381.370000</v>
+        <v>2381.37</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2664.370000</v>
+        <v>-2664.37</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>65334.005723</v>
+        <v>65334.005723000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.148335</v>
+        <v>18.148334999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2867.680000</v>
+        <v>2867.68</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3601.440000</v>
+        <v>-3601.44</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>65345.935033</v>
+        <v>65345.935033000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.151649</v>
+        <v>18.151648999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4284.240000</v>
+        <v>4284.24</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5849.360000</v>
+        <v>-5849.36</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>65174.332623</v>
+        <v>65174.332623000002</v>
       </c>
       <c r="B10" s="1">
-        <v>18.103981</v>
+        <v>18.103981000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.060000</v>
+        <v>1242.06</v>
       </c>
       <c r="D10" s="1">
-        <v>-311.062000</v>
+        <v>-311.06200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>65184.730751</v>
+        <v>65184.730751000003</v>
       </c>
       <c r="G10" s="1">
-        <v>18.106870</v>
+        <v>18.106870000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.610000</v>
+        <v>1268.6099999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-268.345000</v>
+        <v>-268.34500000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>65195.558949</v>
+        <v>65195.558948999998</v>
       </c>
       <c r="L10" s="1">
-        <v>18.109877</v>
+        <v>18.109877000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.610000</v>
+        <v>1305.6099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-205.945000</v>
+        <v>-205.94499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>65206.435188</v>
+        <v>65206.435188000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.112899</v>
+        <v>18.112898999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.970000</v>
+        <v>1317.97</v>
       </c>
       <c r="S10" s="1">
-        <v>-187.549000</v>
+        <v>-187.54900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>65216.958344</v>
+        <v>65216.958343999999</v>
       </c>
       <c r="V10" s="1">
-        <v>18.115822</v>
+        <v>18.115822000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X10" s="1">
-        <v>-173.559000</v>
+        <v>-173.559</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>65227.168952</v>
@@ -2612,285 +3028,285 @@
         <v>18.118658</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.450000</v>
+        <v>1349.45</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.957000</v>
+        <v>-170.95699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>65237.407866</v>
+        <v>65237.407866000001</v>
       </c>
       <c r="AF10" s="1">
         <v>18.121502</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.800000</v>
+        <v>1362.8</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.483000</v>
+        <v>-180.483</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>65247.599889</v>
+        <v>65247.599888999997</v>
       </c>
       <c r="AK10" s="1">
         <v>18.124333</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.970000</v>
+        <v>1383.97</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.081000</v>
+        <v>-210.08099999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>65258.304318</v>
+        <v>65258.304318000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.127307</v>
+        <v>18.127306999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.370000</v>
+        <v>1406.37</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.487000</v>
+        <v>-253.48699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>65268.975776</v>
+        <v>65268.975775999999</v>
       </c>
       <c r="AU10" s="1">
         <v>18.130271</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.670000</v>
+        <v>1431.67</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.778000</v>
+        <v>-312.77800000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>65280.070755</v>
+        <v>65280.070755000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>18.133353</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.231000</v>
+        <v>-364.23099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>65291.098835</v>
+        <v>65291.098834999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.136416</v>
+        <v>18.136416000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.783000</v>
+        <v>-608.78300000000002</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>65302.177444</v>
+        <v>65302.177444000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.139494</v>
+        <v>18.139493999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.900000</v>
+        <v>1695.9</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1045.490000</v>
+        <v>-1045.49</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>65313.106294</v>
+        <v>65313.106293999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.142530</v>
+        <v>18.142530000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.420000</v>
+        <v>1993.42</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1798.430000</v>
+        <v>-1798.43</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>65323.785161</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.145496</v>
+        <v>18.145496000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2381.370000</v>
+        <v>2381.37</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2664.830000</v>
+        <v>-2664.83</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>65334.465018</v>
+        <v>65334.465018000003</v>
       </c>
       <c r="BY10" s="1">
         <v>18.148463</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2868.340000</v>
+        <v>2868.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3601.090000</v>
+        <v>-3601.09</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>65346.475180</v>
+        <v>65346.475180000001</v>
       </c>
       <c r="CD10" s="1">
         <v>18.151799</v>
       </c>
       <c r="CE10" s="1">
-        <v>4281.490000</v>
+        <v>4281.49</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5832.350000</v>
+        <v>-5832.35</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>65174.673388</v>
+        <v>65174.673388000003</v>
       </c>
       <c r="B11" s="1">
-        <v>18.104076</v>
+        <v>18.104075999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.300000</v>
+        <v>1242.3</v>
       </c>
       <c r="D11" s="1">
-        <v>-311.072000</v>
+        <v>-311.072</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>65185.077455</v>
+        <v>65185.077454999999</v>
       </c>
       <c r="G11" s="1">
         <v>18.106966</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.630000</v>
+        <v>1268.6300000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-269.489000</v>
+        <v>-269.48899999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>65196.252816</v>
       </c>
       <c r="L11" s="1">
-        <v>18.110070</v>
+        <v>18.11007</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-205.986000</v>
+        <v>-205.98599999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>65206.785362</v>
+        <v>65206.785362000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.112996</v>
+        <v>18.112995999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.940000</v>
+        <v>1317.94</v>
       </c>
       <c r="S11" s="1">
-        <v>-187.551000</v>
+        <v>-187.55099999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>65217.299558</v>
+        <v>65217.299557999999</v>
       </c>
       <c r="V11" s="1">
         <v>18.115917</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.570000</v>
+        <v>1331.57</v>
       </c>
       <c r="X11" s="1">
-        <v>-173.558000</v>
+        <v>-173.55799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>65227.516168</v>
+        <v>65227.516168000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.118754</v>
+        <v>18.118753999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.380000</v>
+        <v>1349.38</v>
       </c>
       <c r="AC11" s="1">
-        <v>-171.085000</v>
+        <v>-171.08500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>65237.754570</v>
+        <v>65237.754569999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.121598</v>
+        <v>18.121597999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.420000</v>
+        <v>1362.42</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.539000</v>
+        <v>-180.53899999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>65248.257393</v>
@@ -2899,225 +3315,225 @@
         <v>18.124516</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.000000</v>
+        <v>1384</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.106000</v>
+        <v>-210.10599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>65258.709087</v>
+        <v>65258.709087000003</v>
       </c>
       <c r="AP11" s="1">
         <v>18.127419</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.340000</v>
+        <v>1406.34</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.480000</v>
+        <v>-253.48</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>65269.428096</v>
+        <v>65269.428096000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.130397</v>
+        <v>18.130396999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.800000</v>
+        <v>-312.8</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>65280.461104</v>
+        <v>65280.461104000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>18.133461</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.223000</v>
+        <v>-364.22300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>65291.459426</v>
+        <v>65291.459426000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.136517</v>
+        <v>18.136517000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.741000</v>
+        <v>-608.74099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>65302.550473</v>
+        <v>65302.550473000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.139597</v>
+        <v>18.139596999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.840000</v>
+        <v>1695.84</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1045.480000</v>
+        <v>-1045.48</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>65313.531365</v>
+        <v>65313.531365000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.142648</v>
+        <v>18.142648000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.430000</v>
+        <v>1993.43</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1798.370000</v>
+        <v>-1798.37</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>65324.053993</v>
+        <v>65324.053993000001</v>
       </c>
       <c r="BT11" s="1">
         <v>18.145571</v>
       </c>
       <c r="BU11" s="1">
-        <v>2382.010000</v>
+        <v>2382.0100000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2665.040000</v>
+        <v>-2665.04</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>65334.913401</v>
+        <v>65334.913400999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.148587</v>
+        <v>18.148586999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2868.060000</v>
+        <v>2868.06</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3600.720000</v>
+        <v>-3600.72</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>65347.013305</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.151948</v>
+        <v>18.151948000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4269.600000</v>
+        <v>4269.6000000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5846.220000</v>
+        <v>-5846.22</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>65175.356365</v>
       </c>
       <c r="B12" s="1">
-        <v>18.104266</v>
+        <v>18.104265999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.330000</v>
+        <v>1242.33</v>
       </c>
       <c r="D12" s="1">
-        <v>-310.994000</v>
+        <v>-310.99400000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>65185.766398</v>
       </c>
       <c r="G12" s="1">
-        <v>18.107157</v>
+        <v>18.107157000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.920000</v>
+        <v>1268.92</v>
       </c>
       <c r="I12" s="1">
-        <v>-269.051000</v>
+        <v>-269.05099999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>65196.598559</v>
+        <v>65196.598558999998</v>
       </c>
       <c r="L12" s="1">
         <v>18.110166</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.700000</v>
+        <v>1305.7</v>
       </c>
       <c r="N12" s="1">
-        <v>-205.643000</v>
+        <v>-205.643</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>65207.132562</v>
+        <v>65207.132561999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.113092</v>
+        <v>18.113092000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.830000</v>
+        <v>1317.83</v>
       </c>
       <c r="S12" s="1">
-        <v>-187.444000</v>
+        <v>-187.44399999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>65217.643284</v>
+        <v>65217.643283999998</v>
       </c>
       <c r="V12" s="1">
-        <v>18.116012</v>
+        <v>18.116012000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.400000</v>
+        <v>1331.4</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.407000</v>
+        <v>-173.40700000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>65228.187736</v>
@@ -3126,195 +3542,195 @@
         <v>18.118941</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.410000</v>
+        <v>1349.41</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.904000</v>
+        <v>-170.904</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>65238.422727</v>
+        <v>65238.422726999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.121784</v>
+        <v>18.121784000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.970000</v>
+        <v>1362.97</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.658000</v>
+        <v>-180.65799999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>65248.643243</v>
+        <v>65248.643242999999</v>
       </c>
       <c r="AK12" s="1">
         <v>18.124623</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.980000</v>
+        <v>1383.98</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.086000</v>
+        <v>-210.08600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>65259.086542</v>
+        <v>65259.086541999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.127524</v>
+        <v>18.127524000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.340000</v>
+        <v>1406.34</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.489000</v>
+        <v>-253.489</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>65269.793151</v>
+        <v>65269.793150999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.130498</v>
+        <v>18.130497999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.763000</v>
+        <v>-312.76299999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>65280.820208</v>
+        <v>65280.820207999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>18.133561</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.650000</v>
+        <v>1451.65</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.237000</v>
+        <v>-364.23700000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>65291.893395</v>
+        <v>65291.893394999999</v>
       </c>
       <c r="BE12" s="1">
         <v>18.136637</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.776000</v>
+        <v>-608.77599999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>65302.975011</v>
+        <v>65302.975011000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.139715</v>
+        <v>18.139714999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.880000</v>
+        <v>1695.88</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1045.440000</v>
+        <v>-1045.44</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>65313.924726</v>
+        <v>65313.924725999997</v>
       </c>
       <c r="BO12" s="1">
         <v>18.142757</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.600000</v>
+        <v>1993.6</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1798.450000</v>
+        <v>-1798.45</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>65324.486503</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.145691</v>
+        <v>18.145690999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2382.390000</v>
+        <v>2382.39</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2665.570000</v>
+        <v>-2665.57</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>65335.370714</v>
+        <v>65335.370713999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.148714</v>
+        <v>18.148713999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2867.850000</v>
+        <v>2867.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3601.090000</v>
+        <v>-3601.09</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>65347.554968</v>
+        <v>65347.554967999997</v>
       </c>
       <c r="CD12" s="1">
         <v>18.152099</v>
       </c>
       <c r="CE12" s="1">
-        <v>4289.930000</v>
+        <v>4289.93</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5834.730000</v>
+        <v>-5834.73</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>65175.700092</v>
+        <v>65175.700091999999</v>
       </c>
       <c r="B13" s="1">
-        <v>18.104361</v>
+        <v>18.104361000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.320000</v>
+        <v>1242.32</v>
       </c>
       <c r="D13" s="1">
-        <v>-310.785000</v>
+        <v>-310.78500000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>65186.111117</v>
@@ -3323,557 +3739,557 @@
         <v>18.107253</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.470000</v>
+        <v>1269.47</v>
       </c>
       <c r="I13" s="1">
-        <v>-268.485000</v>
+        <v>-268.48500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>65196.944239</v>
+        <v>65196.944238999997</v>
       </c>
       <c r="L13" s="1">
-        <v>18.110262</v>
+        <v>18.110261999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.450000</v>
+        <v>1305.45</v>
       </c>
       <c r="N13" s="1">
-        <v>-205.725000</v>
+        <v>-205.72499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>65207.790786</v>
+        <v>65207.790785999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.113275</v>
+        <v>18.113275000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.980000</v>
+        <v>1317.98</v>
       </c>
       <c r="S13" s="1">
-        <v>-187.435000</v>
+        <v>-187.435</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>65218.291059</v>
+        <v>65218.291059000003</v>
       </c>
       <c r="V13" s="1">
-        <v>18.116192</v>
+        <v>18.116192000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.550000</v>
+        <v>1331.55</v>
       </c>
       <c r="X13" s="1">
-        <v>-173.476000</v>
+        <v>-173.476</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>65228.564198</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.119046</v>
+        <v>18.119046000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.310000</v>
+        <v>1349.31</v>
       </c>
       <c r="AC13" s="1">
-        <v>-171.095000</v>
+        <v>-171.095</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>65238.789257</v>
+        <v>65238.789256999997</v>
       </c>
       <c r="AF13" s="1">
         <v>18.121886</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.710000</v>
+        <v>1362.71</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.489000</v>
+        <v>-180.489</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>65248.991930</v>
+        <v>65248.991929999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.124720</v>
+        <v>18.12472</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.980000</v>
+        <v>1383.98</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.062000</v>
+        <v>-210.06200000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>65259.467965</v>
+        <v>65259.467965000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.127630</v>
+        <v>18.12763</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.350000</v>
+        <v>1406.35</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.444000</v>
+        <v>-253.44399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>65270.157250</v>
+        <v>65270.157249999997</v>
       </c>
       <c r="AU13" s="1">
         <v>18.130599</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.793000</v>
+        <v>-312.79300000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>65281.246273</v>
+        <v>65281.246272999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.133680</v>
+        <v>18.133679999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.580000</v>
+        <v>1451.58</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.257000</v>
+        <v>-364.25700000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>65292.181074</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.136717</v>
+        <v>18.136717000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.763000</v>
+        <v>-608.76300000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>65303.319730</v>
+        <v>65303.319730000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.139811</v>
+        <v>18.139811000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.850000</v>
+        <v>1695.85</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1045.390000</v>
+        <v>-1045.3900000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>65314.345300</v>
+        <v>65314.345300000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.142874</v>
+        <v>18.142873999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.420000</v>
+        <v>1993.42</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1798.400000</v>
+        <v>-1798.4</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>65324.897222</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.145805</v>
+        <v>18.145804999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2382.900000</v>
+        <v>2382.9</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2665.020000</v>
+        <v>-2665.02</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>65335.818105</v>
+        <v>65335.818104999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.148838</v>
+        <v>18.148838000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2868.140000</v>
+        <v>2868.14</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3600.940000</v>
+        <v>-3600.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>65348.092599</v>
+        <v>65348.092599000003</v>
       </c>
       <c r="CD13" s="1">
         <v>18.152248</v>
       </c>
       <c r="CE13" s="1">
-        <v>4268.620000</v>
+        <v>4268.62</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5835.770000</v>
+        <v>-5835.77</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>65176.042331</v>
+        <v>65176.042330999997</v>
       </c>
       <c r="B14" s="1">
-        <v>18.104456</v>
+        <v>18.104455999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="D14" s="1">
-        <v>-310.711000</v>
+        <v>-310.71100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>65186.455141</v>
+        <v>65186.455140999999</v>
       </c>
       <c r="G14" s="1">
-        <v>18.107349</v>
+        <v>18.107348999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.600000</v>
+        <v>1268.5999999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-269.846000</v>
+        <v>-269.846</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>65197.600975</v>
+        <v>65197.600975000001</v>
       </c>
       <c r="L14" s="1">
-        <v>18.110445</v>
+        <v>18.110444999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.310000</v>
+        <v>1305.31</v>
       </c>
       <c r="N14" s="1">
-        <v>-205.854000</v>
+        <v>-205.85400000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>65208.179616</v>
+        <v>65208.179616000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.113383</v>
+        <v>18.113382999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.020000</v>
+        <v>1318.02</v>
       </c>
       <c r="S14" s="1">
-        <v>-187.532000</v>
+        <v>-187.53200000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>65218.672484</v>
+        <v>65218.672484000002</v>
       </c>
       <c r="V14" s="1">
         <v>18.116298</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.570000</v>
+        <v>1331.57</v>
       </c>
       <c r="X14" s="1">
-        <v>-173.690000</v>
+        <v>-173.69</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>65228.914374</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.119143</v>
+        <v>18.119143000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.480000</v>
+        <v>1349.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-171.121000</v>
+        <v>-171.12100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>65239.137911</v>
+        <v>65239.137910999998</v>
       </c>
       <c r="AF14" s="1">
         <v>18.121983</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.840000</v>
+        <v>1362.84</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.407000</v>
+        <v>-180.40700000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>65249.340154</v>
+        <v>65249.340153999998</v>
       </c>
       <c r="AK14" s="1">
         <v>18.124817</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.980000</v>
+        <v>1383.98</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.088000</v>
+        <v>-210.08799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>65259.884117</v>
+        <v>65259.884117000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.127746</v>
+        <v>18.127745999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.330000</v>
+        <v>1406.33</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.462000</v>
+        <v>-253.46199999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>65270.575870</v>
+        <v>65270.575870000001</v>
       </c>
       <c r="AU14" s="1">
         <v>18.130716</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.785000</v>
+        <v>-312.78500000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>65281.537425</v>
+        <v>65281.537425000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.133760</v>
+        <v>18.133759999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.230000</v>
+        <v>-364.23</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>65292.545137</v>
+        <v>65292.545137000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.136818</v>
+        <v>18.136818000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.742000</v>
+        <v>-608.74199999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>65303.695698</v>
+        <v>65303.695698000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.139915</v>
+        <v>18.139914999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.850000</v>
+        <v>1695.85</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1045.430000</v>
+        <v>-1045.43</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>65314.741109</v>
+        <v>65314.741109000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.142984</v>
+        <v>18.142983999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.390000</v>
+        <v>1993.39</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1798.450000</v>
+        <v>-1798.45</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>65325.324246</v>
+        <v>65325.324245999996</v>
       </c>
       <c r="BT14" s="1">
         <v>18.145923</v>
       </c>
       <c r="BU14" s="1">
-        <v>2383.660000</v>
+        <v>2383.66</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2665.560000</v>
+        <v>-2665.56</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>65336.241745</v>
+        <v>65336.241744999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.148956</v>
+        <v>18.148955999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2868.030000</v>
+        <v>2868.03</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3600.240000</v>
+        <v>-3600.24</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>65348.632742</v>
+        <v>65348.632742000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.152398</v>
+        <v>18.152398000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>4286.460000</v>
+        <v>4286.46</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5848.090000</v>
+        <v>-5848.09</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>65176.694110</v>
+        <v>65176.694109999997</v>
       </c>
       <c r="B15" s="1">
         <v>18.104637</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-310.971000</v>
+        <v>-310.971</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>65187.128910</v>
+        <v>65187.128909999999</v>
       </c>
       <c r="G15" s="1">
         <v>18.107536</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="I15" s="1">
-        <v>-269.306000</v>
+        <v>-269.30599999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>65197.982863</v>
+        <v>65197.982862999997</v>
       </c>
       <c r="L15" s="1">
-        <v>18.110551</v>
+        <v>18.110551000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.910000</v>
+        <v>1305.9100000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-205.910000</v>
+        <v>-205.91</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>65208.528800</v>
+        <v>65208.5288</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.113480</v>
+        <v>18.113479999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.000000</v>
+        <v>1318</v>
       </c>
       <c r="S15" s="1">
-        <v>-187.507000</v>
+        <v>-187.50700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>65219.018957</v>
@@ -3882,148 +4298,148 @@
         <v>18.116394</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.640000</v>
+        <v>1331.64</v>
       </c>
       <c r="X15" s="1">
-        <v>-173.711000</v>
+        <v>-173.71100000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>65229.258101</v>
+        <v>65229.258100999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.119238</v>
+        <v>18.119237999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.290000</v>
+        <v>1349.29</v>
       </c>
       <c r="AC15" s="1">
-        <v>-171.162000</v>
+        <v>-171.16200000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>65239.560504</v>
+        <v>65239.560504000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.122100</v>
+        <v>18.1221</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.760000</v>
+        <v>1362.76</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.530000</v>
+        <v>-180.53</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>65249.783050</v>
+        <v>65249.783049999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.124940</v>
+        <v>18.124939999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.980000</v>
+        <v>1383.98</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.081000</v>
+        <v>-210.08099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>65260.189611</v>
+        <v>65260.189611000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.127830</v>
+        <v>18.127829999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.360000</v>
+        <v>1406.36</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.482000</v>
+        <v>-253.482</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>65270.886333</v>
+        <v>65270.886333000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.130802</v>
+        <v>18.130801999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.660000</v>
+        <v>1431.66</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.782000</v>
+        <v>-312.78199999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>65281.896546</v>
+        <v>65281.896546000004</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.133860</v>
+        <v>18.133859999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.580000</v>
+        <v>1451.58</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.166000</v>
+        <v>-364.166</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>65292.904768</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.136918</v>
+        <v>18.136918000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.910000</v>
+        <v>1538.91</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.776000</v>
+        <v>-608.77599999999995</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>65304.069719</v>
+        <v>65304.069718999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.140019</v>
+        <v>18.140018999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.850000</v>
+        <v>1695.85</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1045.390000</v>
+        <v>-1045.3900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>65315.164691</v>
+        <v>65315.164690999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.143101</v>
+        <v>18.143101000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.300000</v>
+        <v>1993.3</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1798.310000</v>
+        <v>-1798.31</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>65325.756793</v>
@@ -4032,392 +4448,392 @@
         <v>18.146044</v>
       </c>
       <c r="BU15" s="1">
-        <v>2384.390000</v>
+        <v>2384.39</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2664.990000</v>
+        <v>-2664.99</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>65336.659359</v>
+        <v>65336.659358999997</v>
       </c>
       <c r="BY15" s="1">
         <v>18.149072</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2867.780000</v>
+        <v>2867.78</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3599.940000</v>
+        <v>-3599.94</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>65349.175862</v>
+        <v>65349.175861999996</v>
       </c>
       <c r="CD15" s="1">
         <v>18.152549</v>
       </c>
       <c r="CE15" s="1">
-        <v>4278.520000</v>
+        <v>4278.5200000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5831.530000</v>
+        <v>-5831.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>65177.065114</v>
+        <v>65177.065113999997</v>
       </c>
       <c r="B16" s="1">
-        <v>18.104740</v>
+        <v>18.10474</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.340000</v>
+        <v>1242.3399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-310.884000</v>
+        <v>-310.88400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>65187.488012</v>
+        <v>65187.488012000002</v>
       </c>
       <c r="G16" s="1">
-        <v>18.107636</v>
+        <v>18.107635999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.430000</v>
+        <v>1269.43</v>
       </c>
       <c r="I16" s="1">
-        <v>-268.838000</v>
+        <v>-268.83800000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>65198.327582</v>
+        <v>65198.327581999998</v>
       </c>
       <c r="L16" s="1">
         <v>18.110647</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.820000</v>
+        <v>1305.82</v>
       </c>
       <c r="N16" s="1">
-        <v>-206.063000</v>
+        <v>-206.06299999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>65208.877984</v>
+        <v>65208.877983999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.113577</v>
+        <v>18.113576999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.930000</v>
+        <v>1317.93</v>
       </c>
       <c r="S16" s="1">
-        <v>-187.554000</v>
+        <v>-187.554</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>65219.366881</v>
+        <v>65219.366881000002</v>
       </c>
       <c r="V16" s="1">
         <v>18.116491</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="X16" s="1">
-        <v>-173.764000</v>
+        <v>-173.76400000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>65229.690647</v>
+        <v>65229.690647000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.119359</v>
+        <v>18.119358999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.920000</v>
+        <v>1349.92</v>
       </c>
       <c r="AC16" s="1">
-        <v>-171.136000</v>
+        <v>-171.136</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>65239.841736</v>
+        <v>65239.841736000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.122178</v>
+        <v>18.122178000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.457000</v>
+        <v>-180.45699999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>65250.046425</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.125013</v>
+        <v>18.125012999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.010000</v>
+        <v>1384.01</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.102000</v>
+        <v>-210.102</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>65260.548219</v>
+        <v>65260.548218999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.127930</v>
+        <v>18.127929999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.360000</v>
+        <v>1406.36</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.489000</v>
+        <v>-253.489</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>65271.252381</v>
+        <v>65271.252380999998</v>
       </c>
       <c r="AU16" s="1">
         <v>18.130903</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.680000</v>
+        <v>1431.68</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.765000</v>
+        <v>-312.76499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>65282.255630</v>
+        <v>65282.25563</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.133960</v>
+        <v>18.133959999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.620000</v>
+        <v>1451.62</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.178000</v>
+        <v>-364.178</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>65293.626946</v>
+        <v>65293.626945999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>18.137119</v>
+        <v>18.137118999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.759000</v>
+        <v>-608.75900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>65304.820130</v>
+        <v>65304.82013</v>
       </c>
       <c r="BJ16" s="1">
         <v>18.140228</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1045.360000</v>
+        <v>-1045.3599999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>65315.560323</v>
+        <v>65315.560322999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.143211</v>
+        <v>18.143211000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.310000</v>
+        <v>1993.31</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1798.290000</v>
+        <v>-1798.29</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>65326.165988</v>
+        <v>65326.165988000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.146157</v>
+        <v>18.146156999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2385.030000</v>
+        <v>2385.0300000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2664.950000</v>
+        <v>-2664.95</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>65337.086374</v>
+        <v>65337.086373999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.149191</v>
+        <v>18.149190999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2867.350000</v>
+        <v>2867.35</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3600.520000</v>
+        <v>-3600.52</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>65350.030005</v>
+        <v>65350.030005000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.152786</v>
+        <v>18.152785999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4286.180000</v>
+        <v>4286.18</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5841.920000</v>
+        <v>-5841.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>65177.409801</v>
+        <v>65177.409801000002</v>
       </c>
       <c r="B17" s="1">
-        <v>18.104836</v>
+        <v>18.104835999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-310.704000</v>
+        <v>-310.70400000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>65187.834715</v>
+        <v>65187.834714999997</v>
       </c>
       <c r="G17" s="1">
-        <v>18.107732</v>
+        <v>18.107731999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="I17" s="1">
-        <v>-268.997000</v>
+        <v>-268.99700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>65198.673294</v>
       </c>
       <c r="L17" s="1">
-        <v>18.110743</v>
+        <v>18.110742999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-206.106000</v>
+        <v>-206.10599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>65209.309999</v>
+        <v>65209.309998999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.113697</v>
+        <v>18.113696999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.860000</v>
+        <v>1317.86</v>
       </c>
       <c r="S17" s="1">
-        <v>-187.475000</v>
+        <v>-187.47499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>65219.782561</v>
       </c>
       <c r="V17" s="1">
-        <v>18.116606</v>
+        <v>18.116606000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.540000</v>
+        <v>1331.54</v>
       </c>
       <c r="X17" s="1">
-        <v>-173.545000</v>
+        <v>-173.54499999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>65229.968900</v>
+        <v>65229.9689</v>
       </c>
       <c r="AA17" s="1">
         <v>18.119436</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.460000</v>
+        <v>1349.46</v>
       </c>
       <c r="AC17" s="1">
-        <v>-171.032000</v>
+        <v>-171.03200000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>65240.184471</v>
@@ -4426,951 +4842,951 @@
         <v>18.122273</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.591000</v>
+        <v>-180.59100000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>65250.398089</v>
+        <v>65250.398089000002</v>
       </c>
       <c r="AK17" s="1">
         <v>18.125111</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.000000</v>
+        <v>1384</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.037000</v>
+        <v>-210.03700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>65260.907355</v>
+        <v>65260.907355000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.128030</v>
+        <v>18.128029999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.370000</v>
+        <v>1406.37</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.458000</v>
+        <v>-253.458</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>65271.618430</v>
+        <v>65271.618430000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.131005</v>
+        <v>18.131004999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.786000</v>
+        <v>-312.786</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>65282.978339</v>
+        <v>65282.978339000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.134161</v>
+        <v>18.134160999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.221000</v>
+        <v>-364.221</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>65293.989023</v>
+        <v>65293.989023000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.137219</v>
+        <v>18.137219000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.910000</v>
+        <v>1538.91</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.723000</v>
+        <v>-608.72299999999996</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>65305.200562</v>
+        <v>65305.200561999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.140333</v>
+        <v>18.140332999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.820000</v>
+        <v>1695.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1045.410000</v>
+        <v>-1045.4100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>65315.980610</v>
+        <v>65315.980609999999</v>
       </c>
       <c r="BO17" s="1">
         <v>18.143328</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.350000</v>
+        <v>1993.35</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1798.440000</v>
+        <v>-1798.44</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>65326.908004</v>
+        <v>65326.908003999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.146363</v>
+        <v>18.146363000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2385.160000</v>
+        <v>2385.16</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2663.960000</v>
+        <v>-2663.96</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>65337.818505</v>
+        <v>65337.818505000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.149394</v>
+        <v>18.149394000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2867.910000</v>
+        <v>2867.91</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3600.320000</v>
+        <v>-3600.32</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>65350.253205</v>
+        <v>65350.253205000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.152848</v>
+        <v>18.152847999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4287.760000</v>
+        <v>4287.76</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5842.640000</v>
+        <v>-5842.64</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>65177.755018</v>
+        <v>65177.755018000003</v>
       </c>
       <c r="B18" s="1">
-        <v>18.104932</v>
+        <v>18.104932000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.140000</v>
+        <v>1242.1400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.762000</v>
+        <v>-310.762</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>65188.211675</v>
+        <v>65188.211674999999</v>
       </c>
       <c r="G18" s="1">
         <v>18.107837</v>
       </c>
       <c r="H18" s="1">
-        <v>1268.870000</v>
+        <v>1268.8699999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.131000</v>
+        <v>-268.13099999999997</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>65199.090925</v>
+        <v>65199.090924999997</v>
       </c>
       <c r="L18" s="1">
-        <v>18.110859</v>
+        <v>18.110859000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.530000</v>
+        <v>1305.53</v>
       </c>
       <c r="N18" s="1">
-        <v>-205.965000</v>
+        <v>-205.965</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>65209.584296</v>
+        <v>65209.584296000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.113773</v>
+        <v>18.113772999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.870000</v>
+        <v>1317.87</v>
       </c>
       <c r="S18" s="1">
-        <v>-187.439000</v>
+        <v>-187.43899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>65220.068226</v>
+        <v>65220.068226000003</v>
       </c>
       <c r="V18" s="1">
-        <v>18.116686</v>
+        <v>18.116686000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.410000</v>
+        <v>1331.41</v>
       </c>
       <c r="X18" s="1">
-        <v>-173.607000</v>
+        <v>-173.607</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>65230.319075</v>
+        <v>65230.319074999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.119533</v>
+        <v>18.119533000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.300000</v>
+        <v>1349.3</v>
       </c>
       <c r="AC18" s="1">
-        <v>-171.038000</v>
+        <v>-171.03800000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>65240.527240</v>
+        <v>65240.527240000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.122369</v>
+        <v>18.122368999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.750000</v>
+        <v>1362.75</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.497000</v>
+        <v>-180.49700000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>65250.747272</v>
+        <v>65250.747272000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.125208</v>
+        <v>18.125208000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.980000</v>
+        <v>1383.98</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.058000</v>
+        <v>-210.05799999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>65261.628508</v>
+        <v>65261.628508000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.128230</v>
+        <v>18.128229999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.350000</v>
+        <v>1406.35</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.467000</v>
+        <v>-253.46700000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>65272.343094</v>
+        <v>65272.343094000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.131206</v>
+        <v>18.131205999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.773000</v>
+        <v>-312.77300000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>65283.352285</v>
+        <v>65283.352285000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.134265</v>
+        <v>18.134264999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.204000</v>
+        <v>-364.20400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>65294.352064</v>
+        <v>65294.352063999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.137320</v>
+        <v>18.137319999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.695000</v>
+        <v>-608.69500000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>65305.571568</v>
+        <v>65305.571567999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.140437</v>
+        <v>18.140436999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.860000</v>
+        <v>1695.86</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1045.430000</v>
+        <v>-1045.43</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>65316.692370</v>
+        <v>65316.692369999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.143526</v>
+        <v>18.143526000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.460000</v>
+        <v>1993.46</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1798.220000</v>
+        <v>-1798.22</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>65327.023540</v>
+        <v>65327.023540000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.146395</v>
+        <v>18.146394999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>2385.960000</v>
+        <v>2385.96</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2663.570000</v>
+        <v>-2663.57</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>65337.949941</v>
+        <v>65337.949940999999</v>
       </c>
       <c r="BY18" s="1">
         <v>18.149431</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2867.680000</v>
+        <v>2867.68</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3600.050000</v>
+        <v>-3600.05</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>65350.772981</v>
+        <v>65350.772981000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.152992</v>
+        <v>18.152992000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4278.880000</v>
+        <v>4278.88</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5827.790000</v>
+        <v>-5827.79</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>65178.173183</v>
+        <v>65178.173182999999</v>
       </c>
       <c r="B19" s="1">
         <v>18.105048</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.220000</v>
+        <v>1242.22</v>
       </c>
       <c r="D19" s="1">
-        <v>-310.692000</v>
+        <v>-310.69200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>65188.878794</v>
+        <v>65188.878793999997</v>
       </c>
       <c r="G19" s="1">
-        <v>18.108022</v>
+        <v>18.108021999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.780000</v>
+        <v>1268.78</v>
       </c>
       <c r="I19" s="1">
-        <v>-268.535000</v>
+        <v>-268.53500000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>65199.382574</v>
+        <v>65199.382574000003</v>
       </c>
       <c r="L19" s="1">
-        <v>18.110940</v>
+        <v>18.110939999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.450000</v>
+        <v>1305.45</v>
       </c>
       <c r="N19" s="1">
-        <v>-205.874000</v>
+        <v>-205.874</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>65209.933968</v>
+        <v>65209.933967999998</v>
       </c>
       <c r="Q19" s="1">
         <v>18.113871</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.930000</v>
+        <v>1317.93</v>
       </c>
       <c r="S19" s="1">
-        <v>-187.368000</v>
+        <v>-187.36799999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>65220.414473</v>
+        <v>65220.414472999997</v>
       </c>
       <c r="V19" s="1">
-        <v>18.116782</v>
+        <v>18.116782000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.470000</v>
+        <v>1331.47</v>
       </c>
       <c r="X19" s="1">
-        <v>-173.720000</v>
+        <v>-173.72</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>65230.665748</v>
+        <v>65230.665747999999</v>
       </c>
       <c r="AA19" s="1">
         <v>18.119629</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.340000</v>
+        <v>1349.34</v>
       </c>
       <c r="AC19" s="1">
-        <v>-171.022000</v>
+        <v>-171.02199999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>65241.212181</v>
+        <v>65241.212181000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.122559</v>
+        <v>18.122558999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.620000</v>
+        <v>1362.62</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.525000</v>
+        <v>-180.52500000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>65251.441672</v>
+        <v>65251.441672000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.125400</v>
+        <v>18.125399999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.990000</v>
+        <v>1383.99</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.080000</v>
+        <v>-210.08</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>65261.987609</v>
+        <v>65261.987609000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.128330</v>
+        <v>18.128329999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.340000</v>
+        <v>1406.34</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.456000</v>
+        <v>-253.45599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>65272.738892</v>
+        <v>65272.738892000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.131316</v>
+        <v>18.131316000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1431.670000</v>
+        <v>1431.67</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.809000</v>
+        <v>-312.80900000000003</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>65283.735224</v>
+        <v>65283.735223999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.134371</v>
+        <v>18.134371000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.550000</v>
+        <v>1451.55</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.202000</v>
+        <v>-364.202</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>65295.023149</v>
+        <v>65295.023149000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.137506</v>
+        <v>18.137505999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.980000</v>
+        <v>1538.98</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.709000</v>
+        <v>-608.70899999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>65306.319571</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.140644</v>
+        <v>18.140644000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.860000</v>
+        <v>1695.86</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1045.400000</v>
+        <v>-1045.4000000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>65316.805457</v>
+        <v>65316.805457000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.143557</v>
+        <v>18.143557000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.240000</v>
+        <v>1993.24</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1798.260000</v>
+        <v>-1798.26</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>65327.462003</v>
+        <v>65327.462003000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.146517</v>
+        <v>18.146516999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2385.720000</v>
+        <v>2385.7199999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2662.930000</v>
+        <v>-2662.93</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>65338.371014</v>
+        <v>65338.371013999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.149548</v>
+        <v>18.149547999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2867.250000</v>
+        <v>2867.25</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3600.710000</v>
+        <v>-3600.71</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>65351.289821</v>
+        <v>65351.289820999998</v>
       </c>
       <c r="CD19" s="1">
         <v>18.153136</v>
       </c>
       <c r="CE19" s="1">
-        <v>4266.210000</v>
+        <v>4266.21</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5840.250000</v>
+        <v>-5840.25</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>65178.452924</v>
+        <v>65178.452923999997</v>
       </c>
       <c r="B20" s="1">
-        <v>18.105126</v>
+        <v>18.105125999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-310.932000</v>
+        <v>-310.93200000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>65189.225995</v>
+        <v>65189.225995000001</v>
       </c>
       <c r="G20" s="1">
-        <v>18.108118</v>
+        <v>18.108118000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.690000</v>
+        <v>1268.69</v>
       </c>
       <c r="I20" s="1">
-        <v>-268.273000</v>
+        <v>-268.27300000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>65199.727293</v>
+        <v>65199.727293000004</v>
       </c>
       <c r="L20" s="1">
-        <v>18.111035</v>
+        <v>18.111035000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.590000</v>
+        <v>1305.5899999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-205.989000</v>
+        <v>-205.989</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>65210.281167</v>
+        <v>65210.281167000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.113967</v>
+        <v>18.113966999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.980000</v>
+        <v>1317.98</v>
       </c>
       <c r="S20" s="1">
-        <v>-187.473000</v>
+        <v>-187.47300000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>65220.756673</v>
+        <v>65220.756673000004</v>
       </c>
       <c r="V20" s="1">
-        <v>18.116877</v>
+        <v>18.116876999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.510000</v>
+        <v>1331.51</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.762000</v>
+        <v>-173.762</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>65231.363123</v>
+        <v>65231.363123000003</v>
       </c>
       <c r="AA20" s="1">
         <v>18.119823</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.370000</v>
+        <v>1349.37</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.984000</v>
+        <v>-170.98400000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>65241.556406</v>
+        <v>65241.556406000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.122655</v>
+        <v>18.122655000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.740000</v>
+        <v>1362.74</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.470000</v>
+        <v>-180.47</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>65251.789873</v>
+        <v>65251.789873000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.125497</v>
+        <v>18.125496999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.000000</v>
+        <v>1384</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.090000</v>
+        <v>-210.09</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>65262.350217</v>
+        <v>65262.350216999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.128431</v>
+        <v>18.128430999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.350000</v>
+        <v>1406.35</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.461000</v>
+        <v>-253.46100000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>65273.415930</v>
+        <v>65273.415930000003</v>
       </c>
       <c r="AU20" s="1">
         <v>18.131504</v>
       </c>
       <c r="AV20" s="1">
-        <v>1431.720000</v>
+        <v>1431.72</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.759000</v>
+        <v>-312.75900000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>65284.406811</v>
+        <v>65284.406811000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.134557</v>
+        <v>18.134557000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.570000</v>
+        <v>1451.57</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.176000</v>
+        <v>-364.17599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>65295.460621</v>
+        <v>65295.460620999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.137628</v>
+        <v>18.137627999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.741000</v>
+        <v>-608.74099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>65306.701454</v>
+        <v>65306.701454000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.140750</v>
+        <v>18.140750000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.890000</v>
+        <v>1695.89</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1045.320000</v>
+        <v>-1045.32</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>65317.223122</v>
+        <v>65317.223122000003</v>
       </c>
       <c r="BO20" s="1">
         <v>18.143673</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.110000</v>
+        <v>1993.11</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1798.280000</v>
+        <v>-1798.28</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>65327.876659</v>
+        <v>65327.876659000001</v>
       </c>
       <c r="BT20" s="1">
         <v>18.146632</v>
       </c>
       <c r="BU20" s="1">
-        <v>2385.430000</v>
+        <v>2385.4299999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2662.080000</v>
+        <v>-2662.08</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>65338.796084</v>
+        <v>65338.796084000001</v>
       </c>
       <c r="BY20" s="1">
         <v>18.149666</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2867.440000</v>
+        <v>2867.44</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3600.670000</v>
+        <v>-3600.67</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>65351.808627</v>
+        <v>65351.808626999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.153280</v>
+        <v>18.153279999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4279.940000</v>
+        <v>4279.9399999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5849.210000</v>
+        <v>-5849.21</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>65178.797113</v>
+        <v>65178.797113000001</v>
       </c>
       <c r="B21" s="1">
         <v>18.105221</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.310000</v>
+        <v>1242.31</v>
       </c>
       <c r="D21" s="1">
-        <v>-310.953000</v>
+        <v>-310.95299999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>65189.569226</v>
@@ -5379,755 +5795,755 @@
         <v>18.108214</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.580000</v>
+        <v>1268.58</v>
       </c>
       <c r="I21" s="1">
-        <v>-268.464000</v>
+        <v>-268.464</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>65200.074491</v>
+        <v>65200.074490999999</v>
       </c>
       <c r="L21" s="1">
-        <v>18.111132</v>
+        <v>18.111132000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.560000</v>
+        <v>1305.56</v>
       </c>
       <c r="N21" s="1">
-        <v>-205.936000</v>
+        <v>-205.93600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>65210.976557</v>
+        <v>65210.976557000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.114160</v>
+        <v>18.114159999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.950000</v>
+        <v>1317.95</v>
       </c>
       <c r="S21" s="1">
-        <v>-187.516000</v>
+        <v>-187.51599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>65221.443136</v>
+        <v>65221.443136000002</v>
       </c>
       <c r="V21" s="1">
         <v>18.117068</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X21" s="1">
-        <v>-173.623000</v>
+        <v>-173.62299999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>65231.712337</v>
+        <v>65231.712336999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.119920</v>
+        <v>18.11992</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.370000</v>
+        <v>1349.37</v>
       </c>
       <c r="AC21" s="1">
-        <v>-171.006000</v>
+        <v>-171.006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>65241.899141</v>
+        <v>65241.899141000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.122750</v>
+        <v>18.12275</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.680000</v>
+        <v>1362.68</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.524000</v>
+        <v>-180.524</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>65252.141067</v>
+        <v>65252.141066999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.125595</v>
+        <v>18.125595000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.000000</v>
+        <v>1384</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.064000</v>
+        <v>-210.06399999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>65263.020813</v>
+        <v>65263.020813000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.128617</v>
+        <v>18.128616999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.360000</v>
+        <v>1406.36</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.471000</v>
+        <v>-253.471</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>65273.864134</v>
+        <v>65273.864134000003</v>
       </c>
       <c r="AU21" s="1">
         <v>18.131629</v>
       </c>
       <c r="AV21" s="1">
-        <v>1431.690000</v>
+        <v>1431.69</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.743000</v>
+        <v>-312.74299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>65284.817468</v>
+        <v>65284.817468000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.134672</v>
+        <v>18.134671999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.590000</v>
+        <v>1451.59</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.174000</v>
+        <v>-364.17399999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>65295.824190</v>
+        <v>65295.824189999999</v>
       </c>
       <c r="BE21" s="1">
         <v>18.137729</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.759000</v>
+        <v>-608.75900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>65307.073485</v>
+        <v>65307.073485000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.140854</v>
+        <v>18.140854000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.830000</v>
+        <v>1695.83</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1045.270000</v>
+        <v>-1045.27</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>65317.615424</v>
+        <v>65317.615424000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.143782</v>
+        <v>18.143782000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.330000</v>
+        <v>1993.33</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1798.110000</v>
+        <v>-1798.11</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>65328.306195</v>
+        <v>65328.306194999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.146752</v>
+        <v>18.146751999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2385.460000</v>
+        <v>2385.46</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2661.500000</v>
+        <v>-2661.5</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>65339.222643</v>
+        <v>65339.222643000001</v>
       </c>
       <c r="BY21" s="1">
         <v>18.149784</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2868.140000</v>
+        <v>2868.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3600.210000</v>
+        <v>-3600.21</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>65352.327973</v>
+        <v>65352.327972999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.153424</v>
+        <v>18.153424000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4276.750000</v>
+        <v>4276.75</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5847.820000</v>
+        <v>-5847.82</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>65179.136903</v>
+        <v>65179.136902999999</v>
       </c>
       <c r="B22" s="1">
-        <v>18.105316</v>
+        <v>18.105315999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.300000</v>
+        <v>1242.3</v>
       </c>
       <c r="D22" s="1">
-        <v>-310.846000</v>
+        <v>-310.846</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>65190.263128</v>
+        <v>65190.263127999999</v>
       </c>
       <c r="G22" s="1">
-        <v>18.108406</v>
+        <v>18.108405999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.490000</v>
+        <v>1269.49</v>
       </c>
       <c r="I22" s="1">
-        <v>-268.778000</v>
+        <v>-268.77800000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>65200.767434</v>
+        <v>65200.767434000001</v>
       </c>
       <c r="L22" s="1">
         <v>18.111324</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.610000</v>
+        <v>1305.6099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-205.709000</v>
+        <v>-205.709</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>65211.329212</v>
+        <v>65211.329211999997</v>
       </c>
       <c r="Q22" s="1">
         <v>18.114258</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.850000</v>
+        <v>1317.85</v>
       </c>
       <c r="S22" s="1">
-        <v>-187.527000</v>
+        <v>-187.52699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>65221.801247</v>
+        <v>65221.801247000003</v>
       </c>
       <c r="V22" s="1">
-        <v>18.117167</v>
+        <v>18.117166999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.480000</v>
+        <v>1331.48</v>
       </c>
       <c r="X22" s="1">
-        <v>-173.683000</v>
+        <v>-173.68299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>65232.060994</v>
+        <v>65232.060993999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.120017</v>
+        <v>18.120017000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.380000</v>
+        <v>1349.38</v>
       </c>
       <c r="AC22" s="1">
-        <v>-171.038000</v>
+        <v>-171.03800000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>65242.547443</v>
+        <v>65242.547443000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.122930</v>
+        <v>18.12293</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.720000</v>
+        <v>1362.72</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.492000</v>
+        <v>-180.49199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>65252.803723</v>
+        <v>65252.803722999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.125779</v>
+        <v>18.125779000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.020000</v>
+        <v>1384.02</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.088000</v>
+        <v>-210.08799999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>65263.448825</v>
+        <v>65263.448824999999</v>
       </c>
       <c r="AP22" s="1">
         <v>18.128736</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.340000</v>
+        <v>1406.34</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.481000</v>
+        <v>-253.48099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>65274.226890</v>
+        <v>65274.226889999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.131730</v>
+        <v>18.131730000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1431.720000</v>
+        <v>1431.72</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.760000</v>
+        <v>-312.76</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>65285.192971</v>
+        <v>65285.192970999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.134776</v>
+        <v>18.134775999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.169000</v>
+        <v>-364.16899999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>65296.185772</v>
+        <v>65296.185771999997</v>
       </c>
       <c r="BE22" s="1">
         <v>18.137829</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.685000</v>
+        <v>-608.68499999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>65307.492573</v>
+        <v>65307.492573000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.140970</v>
+        <v>18.140969999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.860000</v>
+        <v>1695.86</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1045.370000</v>
+        <v>-1045.3699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>65318.038511</v>
+        <v>65318.038510999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.143900</v>
+        <v>18.143899999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.240000</v>
+        <v>1993.24</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1798.150000</v>
+        <v>-1798.15</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>65328.734282</v>
+        <v>65328.734281999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.146871</v>
+        <v>18.146871000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.400000</v>
+        <v>2385.4</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2660.770000</v>
+        <v>-2660.77</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>65339.697314</v>
+        <v>65339.697313999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.149916</v>
+        <v>18.149916000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2867.480000</v>
+        <v>2867.48</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3600.110000</v>
+        <v>-3600.11</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>65352.876017</v>
+        <v>65352.876017000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.153577</v>
+        <v>18.153576999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4269.460000</v>
+        <v>4269.46</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5845.950000</v>
+        <v>-5845.95</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>65179.819894</v>
       </c>
       <c r="B23" s="1">
-        <v>18.105506</v>
+        <v>18.105505999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.480000</v>
+        <v>1242.48</v>
       </c>
       <c r="D23" s="1">
-        <v>-310.839000</v>
+        <v>-310.839</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>65190.601411</v>
+        <v>65190.601411000003</v>
       </c>
       <c r="G23" s="1">
-        <v>18.108500</v>
+        <v>18.108499999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.410000</v>
+        <v>1268.4100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-268.035000</v>
+        <v>-268.03500000000003</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>65201.113611</v>
+        <v>65201.113611000001</v>
       </c>
       <c r="L23" s="1">
-        <v>18.111420</v>
+        <v>18.111419999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.560000</v>
+        <v>1305.56</v>
       </c>
       <c r="N23" s="1">
-        <v>-205.887000</v>
+        <v>-205.887</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>65211.675948</v>
+        <v>65211.675947999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.114354</v>
+        <v>18.114353999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.890000</v>
+        <v>1317.89</v>
       </c>
       <c r="S23" s="1">
-        <v>-187.418000</v>
+        <v>-187.41800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>65222.498126</v>
+        <v>65222.498125999999</v>
       </c>
       <c r="V23" s="1">
-        <v>18.117361</v>
+        <v>18.117360999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.410000</v>
+        <v>1331.41</v>
       </c>
       <c r="X23" s="1">
-        <v>-173.628000</v>
+        <v>-173.62799999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>65232.716208</v>
+        <v>65232.716207999998</v>
       </c>
       <c r="AA23" s="1">
         <v>18.120199</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.440000</v>
+        <v>1349.44</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.985000</v>
+        <v>-170.98500000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>65242.928836</v>
+        <v>65242.928835999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.123036</v>
+        <v>18.123035999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.610000</v>
+        <v>-180.61</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>65253.188596</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.125886</v>
+        <v>18.125886000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.970000</v>
+        <v>1383.97</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.074000</v>
+        <v>-210.07400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>65263.829288</v>
+        <v>65263.829288000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.128841</v>
+        <v>18.128841000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.330000</v>
+        <v>1406.33</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.477000</v>
+        <v>-253.477</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>65274.591449</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.131831</v>
+        <v>18.131830999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.680000</v>
+        <v>1431.68</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.764000</v>
+        <v>-312.76400000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>65285.570890</v>
+        <v>65285.570890000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>18.134881</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.199000</v>
+        <v>-364.19900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>65296.610349</v>
+        <v>65296.610349000002</v>
       </c>
       <c r="BE23" s="1">
         <v>18.137947</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.743000</v>
+        <v>-608.74300000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>65307.834350</v>
+        <v>65307.834349999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.141065</v>
+        <v>18.141065000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.860000</v>
+        <v>1695.86</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1045.370000</v>
+        <v>-1045.3699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>65318.435312</v>
+        <v>65318.435312000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.144010</v>
+        <v>18.144010000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1798.120000</v>
+        <v>-1798.12</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>65329.149393</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.146986</v>
+        <v>18.146985999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>2384.880000</v>
+        <v>2384.88</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2660.250000</v>
+        <v>-2660.25</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>65340.082211</v>
+        <v>65340.082211000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.150023</v>
+        <v>18.150023000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2867.200000</v>
+        <v>2867.2</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3599.540000</v>
+        <v>-3599.54</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>65353.407761</v>
+        <v>65353.407761000002</v>
       </c>
       <c r="CD23" s="1">
         <v>18.153724</v>
       </c>
       <c r="CE23" s="1">
-        <v>4286.820000</v>
+        <v>4286.82</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5846.270000</v>
+        <v>-5846.27</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>65180.162634</v>
       </c>
@@ -6135,513 +6551,513 @@
         <v>18.105601</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="D24" s="1">
-        <v>-310.799000</v>
+        <v>-310.79899999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>65190.946119</v>
       </c>
       <c r="G24" s="1">
-        <v>18.108596</v>
+        <v>18.108595999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.030000</v>
+        <v>1269.03</v>
       </c>
       <c r="I24" s="1">
-        <v>-268.416000</v>
+        <v>-268.416</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>65201.459817</v>
+        <v>65201.459817000003</v>
       </c>
       <c r="L24" s="1">
-        <v>18.111517</v>
+        <v>18.111516999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.010000</v>
+        <v>1306.01</v>
       </c>
       <c r="N24" s="1">
-        <v>-206.135000</v>
+        <v>-206.13499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>65212.335638</v>
+        <v>65212.335637999997</v>
       </c>
       <c r="Q24" s="1">
         <v>18.114538</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.980000</v>
+        <v>1317.98</v>
       </c>
       <c r="S24" s="1">
-        <v>-187.447000</v>
+        <v>-187.447</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>65222.842845</v>
+        <v>65222.842844999999</v>
       </c>
       <c r="V24" s="1">
-        <v>18.117456</v>
+        <v>18.117456000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.540000</v>
+        <v>1331.54</v>
       </c>
       <c r="X24" s="1">
-        <v>-173.569000</v>
+        <v>-173.56899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>65233.106560</v>
+        <v>65233.10656</v>
       </c>
       <c r="AA24" s="1">
         <v>18.120307</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.450000</v>
+        <v>1349.45</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.948000</v>
+        <v>-170.94800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>65243.274086</v>
+        <v>65243.274085999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.123132</v>
+        <v>18.123131999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.910000</v>
+        <v>1362.91</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.580000</v>
+        <v>-180.58</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>65253.535296</v>
+        <v>65253.535296000002</v>
       </c>
       <c r="AK24" s="1">
         <v>18.125982</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.000000</v>
+        <v>1384</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.053000</v>
+        <v>-210.053</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>65264.189847</v>
+        <v>65264.189847000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.128942</v>
+        <v>18.128941999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.380000</v>
+        <v>1406.38</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.482000</v>
+        <v>-253.482</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>65275.018039</v>
+        <v>65275.018039000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.131949</v>
+        <v>18.131948999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.680000</v>
+        <v>1431.68</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.737000</v>
+        <v>-312.73700000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>65285.996954</v>
+        <v>65285.996954000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.134999</v>
+        <v>18.134999000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.580000</v>
+        <v>1451.58</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.163000</v>
+        <v>-364.16300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>65296.905467</v>
+        <v>65296.905466999997</v>
       </c>
       <c r="BE24" s="1">
         <v>18.138029</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.739000</v>
+        <v>-608.73900000000003</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>65308.224700</v>
+        <v>65308.224699999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.141174</v>
+        <v>18.141173999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.910000</v>
+        <v>1695.91</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1045.270000</v>
+        <v>-1045.27</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>65318.859391</v>
+        <v>65318.859390999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.144128</v>
+        <v>18.144127999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1993.280000</v>
+        <v>1993.28</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1798.060000</v>
+        <v>-1798.06</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>65329.579921</v>
+        <v>65329.579920999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.147106</v>
+        <v>18.147106000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2384.270000</v>
+        <v>2384.27</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2660.120000</v>
+        <v>-2660.12</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>65340.666499</v>
+        <v>65340.666498999999</v>
       </c>
       <c r="BY24" s="1">
         <v>18.150185</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2867.060000</v>
+        <v>2867.06</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3600.420000</v>
+        <v>-3600.42</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>65353.926049</v>
+        <v>65353.926049000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.153868</v>
+        <v>18.153867999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4285.320000</v>
+        <v>4285.32</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5830.150000</v>
+        <v>-5830.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>65180.504374</v>
+        <v>65180.504373999996</v>
       </c>
       <c r="B25" s="1">
-        <v>18.105696</v>
+        <v>18.105695999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.190000</v>
+        <v>1242.19</v>
       </c>
       <c r="D25" s="1">
-        <v>-310.770000</v>
+        <v>-310.77</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>65191.601830</v>
+        <v>65191.60183</v>
       </c>
       <c r="G25" s="1">
-        <v>18.108778</v>
+        <v>18.108778000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.770000</v>
+        <v>1268.77</v>
       </c>
       <c r="I25" s="1">
-        <v>-268.796000</v>
+        <v>-268.79599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>65202.109578</v>
+        <v>65202.109578000003</v>
       </c>
       <c r="L25" s="1">
-        <v>18.111697</v>
+        <v>18.111696999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.640000</v>
+        <v>1305.6400000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-206.143000</v>
+        <v>-206.143</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>65212.721980</v>
+        <v>65212.721980000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.114645</v>
+        <v>18.114644999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.980000</v>
+        <v>1317.98</v>
       </c>
       <c r="S25" s="1">
-        <v>-187.477000</v>
+        <v>-187.477</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>65223.185218</v>
+        <v>65223.185217999999</v>
       </c>
       <c r="V25" s="1">
-        <v>18.117551</v>
+        <v>18.117550999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X25" s="1">
-        <v>-173.605000</v>
+        <v>-173.60499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>65233.456737</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.120405</v>
+        <v>18.120405000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.420000</v>
+        <v>1349.42</v>
       </c>
       <c r="AC25" s="1">
-        <v>-171.100000</v>
+        <v>-171.1</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>65243.617777</v>
+        <v>65243.617776999999</v>
       </c>
       <c r="AF25" s="1">
         <v>18.123227</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.690000</v>
+        <v>1362.69</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.499000</v>
+        <v>-180.499</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>65253.886484</v>
+        <v>65253.886484000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.126080</v>
+        <v>18.126080000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.990000</v>
+        <v>1383.99</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.061000</v>
+        <v>-210.06100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>65264.610988</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.129059</v>
+        <v>18.129059000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.380000</v>
+        <v>1406.38</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.485000</v>
+        <v>-253.48500000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>65275.320073</v>
+        <v>65275.320073000003</v>
       </c>
       <c r="AU25" s="1">
         <v>18.132033</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.710000</v>
+        <v>1431.71</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.723000</v>
+        <v>-312.72300000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>65286.289129</v>
+        <v>65286.289128999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.135080</v>
+        <v>18.135079999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.600000</v>
+        <v>1451.6</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.169000</v>
+        <v>-364.16899999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>65297.268077</v>
+        <v>65297.268077000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.138130</v>
+        <v>18.13813</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.712000</v>
+        <v>-608.71199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>65308.597661</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.141277</v>
+        <v>18.141276999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.840000</v>
+        <v>1695.84</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1045.250000</v>
+        <v>-1045.25</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>65319.257183</v>
+        <v>65319.257183000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.144238</v>
+        <v>18.144238000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1993.310000</v>
+        <v>1993.31</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1798.150000</v>
+        <v>-1798.15</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>65330.006515</v>
+        <v>65330.006515000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.147224</v>
+        <v>18.147224000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2383.940000</v>
+        <v>2383.94</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2659.890000</v>
+        <v>-2659.89</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>65340.959633</v>
+        <v>65340.959632999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.150267</v>
+        <v>18.150266999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2867.370000</v>
+        <v>2867.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3599.720000</v>
+        <v>-3599.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>65354.441392</v>
+        <v>65354.441392000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.154011</v>
+        <v>18.154011000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4270.550000</v>
+        <v>4270.55</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5832.810000</v>
+        <v>-5832.81</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>65181.157604</v>
       </c>
@@ -6649,178 +7065,178 @@
         <v>18.105877</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.675000</v>
+        <v>-310.67500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>65191.983750</v>
+        <v>65191.983749999999</v>
       </c>
       <c r="G26" s="1">
         <v>18.108884</v>
       </c>
       <c r="H26" s="1">
-        <v>1267.810000</v>
+        <v>1267.81</v>
       </c>
       <c r="I26" s="1">
-        <v>-268.574000</v>
+        <v>-268.57400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>65202.493976</v>
+        <v>65202.493975999998</v>
       </c>
       <c r="L26" s="1">
-        <v>18.111804</v>
+        <v>18.111803999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.770000</v>
+        <v>1305.77</v>
       </c>
       <c r="N26" s="1">
-        <v>-206.153000</v>
+        <v>-206.15299999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>65213.070203</v>
+        <v>65213.070203000003</v>
       </c>
       <c r="Q26" s="1">
         <v>18.114742</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.960000</v>
+        <v>1317.96</v>
       </c>
       <c r="S26" s="1">
-        <v>-187.481000</v>
+        <v>-187.48099999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>65223.528317</v>
+        <v>65223.528316999997</v>
       </c>
       <c r="V26" s="1">
-        <v>18.117647</v>
+        <v>18.117647000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.610000</v>
+        <v>1331.61</v>
       </c>
       <c r="X26" s="1">
-        <v>-173.626000</v>
+        <v>-173.626</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>65233.803459</v>
+        <v>65233.803459000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.120501</v>
+        <v>18.120501000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.380000</v>
+        <v>1349.38</v>
       </c>
       <c r="AC26" s="1">
-        <v>-171.070000</v>
+        <v>-171.07</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>65244.035409</v>
+        <v>65244.035408999996</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.123343</v>
+        <v>18.123342999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.700000</v>
+        <v>1362.7</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.540000</v>
+        <v>-180.54</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>65254.303587</v>
+        <v>65254.303587000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.126195</v>
+        <v>18.126194999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.010000</v>
+        <v>1384.01</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.088000</v>
+        <v>-210.08799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>65264.910038</v>
+        <v>65264.910038000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.129142</v>
+        <v>18.129142000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.370000</v>
+        <v>1406.37</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.435000</v>
+        <v>-253.435</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>65275.687138</v>
+        <v>65275.687138000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.132135</v>
+        <v>18.132135000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.680000</v>
+        <v>1431.68</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.780000</v>
+        <v>-312.77999999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>65286.649192</v>
+        <v>65286.649191999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.135180</v>
+        <v>18.135179999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.610000</v>
+        <v>1451.61</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.186000</v>
+        <v>-364.18599999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>65297.629132</v>
+        <v>65297.629132000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.138230</v>
+        <v>18.13823</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.707000</v>
+        <v>-608.70699999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>65309.349101</v>
@@ -6829,75 +7245,76 @@
         <v>18.141486</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.850000</v>
+        <v>1695.85</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1045.300000</v>
+        <v>-1045.3</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>65319.673857</v>
+        <v>65319.673857000002</v>
       </c>
       <c r="BO26" s="1">
         <v>18.144354</v>
       </c>
       <c r="BP26" s="1">
-        <v>1993.220000</v>
+        <v>1993.22</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1798.130000</v>
+        <v>-1798.13</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>65330.417699</v>
+        <v>65330.417698999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.147338</v>
+        <v>18.147338000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2383.090000</v>
+        <v>2383.09</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2659.530000</v>
+        <v>-2659.53</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>65341.382722</v>
+        <v>65341.382722000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.150384</v>
+        <v>18.150383999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2867.750000</v>
+        <v>2867.75</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3600.060000</v>
+        <v>-3600.06</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>65354.960702</v>
+        <v>65354.960701999997</v>
       </c>
       <c r="CD26" s="1">
         <v>18.154156</v>
       </c>
       <c r="CE26" s="1">
-        <v>4286.280000</v>
+        <v>4286.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5846.060000</v>
+        <v>-5846.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>